--- a/municipal/ENG/Demography/Number of live births/Tskaltubo.xlsx
+++ b/municipal/ENG/Demography/Number of live births/Tskaltubo.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Number of live births\Number of live births\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Number of live births by urban-rural settlements\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13470" windowHeight="7590"/>
+    <workbookView xWindow="17280" yWindow="435" windowWidth="11265" windowHeight="13200"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,14 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,7 +107,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -298,63 +292,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="4"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="3"/>
+    <cellStyle name="Normal_Mosaxleoba na 1.1 raionebis mixedvit" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -632,241 +647,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:M8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.7109375" style="19" customWidth="1"/>
+    <col min="2" max="14" width="8.7109375" style="19" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="19"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="12"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
-      <c r="B5" s="2">
+    <row r="5" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="1">
         <v>2010</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2011</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>2012</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <v>2013</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="2">
         <v>2014</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>2015</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>2016</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>2017</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>2018</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>2019</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>2020</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="20">
         <v>2021</v>
       </c>
+      <c r="N5" s="3">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>814</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>762</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="9">
         <v>725</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="9">
         <v>706</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="9">
         <v>804</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>711</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="9">
         <v>695</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="9">
         <v>675</v>
       </c>
-      <c r="J6" s="12">
+      <c r="J6" s="9">
         <v>570</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="9">
         <v>528</v>
       </c>
-      <c r="L6" s="12">
+      <c r="L6" s="9">
         <v>536</v>
       </c>
-      <c r="M6" s="13">
+      <c r="M6" s="9">
         <v>510</v>
       </c>
+      <c r="N6" s="21">
+        <v>461</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>184</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>167</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>168</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>158</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="5">
         <v>167</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <v>164</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="5">
         <v>157</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="5">
         <v>152</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="5">
         <v>147</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="5">
         <v>129</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <v>139</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="22">
         <v>118</v>
       </c>
+      <c r="N7" s="23">
+        <v>112</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:14" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>630</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>595</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>557</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="7">
         <v>548</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>637</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="7">
         <v>547</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="7">
         <v>538</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>523</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="7">
         <v>423</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="7">
         <v>399</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="7">
         <v>397</v>
       </c>
-      <c r="M8" s="10">
+      <c r="M8" s="7">
         <v>392</v>
+      </c>
+      <c r="N8" s="24">
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>